--- a/Chapter-12_Excel/pythonToExcel.xlsx
+++ b/Chapter-12_Excel/pythonToExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Desktop\Vandeilson_UNICSUL\git_repositorio\python_automate_boring_stuff_exercises\Chapter-12_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2D5622-50DE-4DAA-A1C3-C511508D8F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9951E7E-FBFB-4D37-8089-2E9B548460F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Month 1</t>
+  </si>
+  <si>
+    <t>Month 2</t>
+  </si>
+  <si>
+    <t>Month 3</t>
+  </si>
+  <si>
+    <t>Month 4</t>
+  </si>
+  <si>
+    <t>Month 5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Product 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Product 2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Product 3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Product 4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Product 5</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,6 +123,541 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sales!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>sales!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Month 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Month 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Month 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Month 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Month 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sales!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06B8-47CB-B0B6-3DA6FF5D16A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sales!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>sales!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Month 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Month 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Month 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Month 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Month 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sales!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06B8-47CB-B0B6-3DA6FF5D16A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sales!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>sales!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Month 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Month 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Month 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Month 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Month 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sales!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06B8-47CB-B0B6-3DA6FF5D16A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sales!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>sales!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Month 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Month 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Month 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Month 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Month 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sales!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06B8-47CB-B0B6-3DA6FF5D16A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sales!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>sales!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Month 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Month 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Month 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Month 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Month 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sales!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-06B8-47CB-B0B6-3DA6FF5D16A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Months</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Sales (per unity)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,14 +945,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>111</v>
+      </c>
+      <c r="E2">
+        <v>116</v>
+      </c>
+      <c r="F2">
+        <v>101</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>114</v>
+      </c>
+      <c r="E3">
+        <v>137</v>
+      </c>
+      <c r="F3">
+        <v>124</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>122</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>115</v>
+      </c>
+      <c r="G5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <v>141</v>
+      </c>
+      <c r="G6">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>